--- a/4G模块配置.xlsx
+++ b/4G模块配置.xlsx
@@ -7,49 +7,17 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="pppd拨号" sheetId="1" r:id="rId1"/>
+    <sheet name="硬件部分" sheetId="4" r:id="rId2"/>
+    <sheet name="电源部分" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命令</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>sudo apt-get install -y ppp</t>
   </si>
@@ -81,7 +49,214 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>ppp (point-to-point protocol)</t>
+      <t>pppd (point-to-point protocol dial)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开路电压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.67v</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>USB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据线处串联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧姆电阻</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>wan-led</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串接在电源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VCC</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1uf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电阻组成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复位电路</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测插入断开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GND,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拔出连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GND</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,13 +287,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Tahoma"/>
@@ -134,6 +302,13 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -163,8 +338,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -238,6 +413,11 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFF33CC"/>
+      <color rgb="FF006600"/>
+      <color rgb="FF33CC33"/>
+    </mruColors>
   </colors>
 </styleSheet>
 </file>
@@ -255,7 +435,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>348234</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -653,7 +833,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>注意：在这个过程中可能出现错误“</a:t>
+            <a:t>注意：在这个过程中可能出现错误</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -678,12 +858,16 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
-            <a:t>” </a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>解</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>解决方法：在配置文件</a:t>
+            <a:t>决方法：在配置文件</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
@@ -699,7 +883,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>即可。</a:t>
+            <a:t>即可</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -726,7 +910,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="4876799"/>
+          <a:off x="0" y="4867274"/>
           <a:ext cx="8048624" cy="3762375"/>
           <a:chOff x="0" y="4981574"/>
           <a:chExt cx="8048624" cy="3762375"/>
@@ -808,8 +992,28 @@
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
-              <a:t>#/etc/ppp/evdo-connect-chat</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>#</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>脚本存放的位置</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>:/etc/ppp/evdo-connect-chat</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1495,14 +1699,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1514,8 +1718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="8924926"/>
-          <a:ext cx="11487150" cy="8924924"/>
+          <a:off x="9525" y="8772526"/>
+          <a:ext cx="8572500" cy="9248774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1548,29 +1752,113 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>脚本</a:t>
+            <a:t>脚本用于配置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>pppd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>的参数</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>脚本存放位置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/etc/ppp/peers/evdo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t># </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>使用执行</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>sudo</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> pppd call evdo&amp;</a:t>
           </a:r>
         </a:p>
@@ -1755,7 +2043,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
-            <a:t>DNS2,</a:t>
+            <a:t>DNS2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1918,6 +2206,7991 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8591550" y="15668625"/>
+          <a:ext cx="7858124" cy="2352676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4G</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>网速测试结果：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="006600"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>jack@ubuntu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>~</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>$ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>speedtest --bytes --server 5081</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Retrieving speedtest.net configuration...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Retrieving speedtest.net server list...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Testing from China Unicom Guangdong province (112.97.194.52)...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hosted by ShenZhen Telecom (Shenzhen) [0.00 km]: 40.854 ms</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Testing download speed........................................</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Download: 2.32 Mbyte/s</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Testing upload speed..................................................</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Upload: 1.13 Mbyte/s</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18297525"/>
+          <a:ext cx="8667750" cy="16525874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pppd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的连接过程：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="006600"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>jack@ubuntu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>~</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>$ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sudo pppd call evdo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>timeout set to 15 seconds</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>abort on (DELAYED)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>abort on (BUSY)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>abort on (ERROR)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>abort on (NO DIALTONE)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>abort on (NO CARRIER)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>send (AT^M)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>expect (OK)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>^M</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> -- got it</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>send (ATE0^M)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>expect (OK)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>^M</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>^M</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> -- got it</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>send (ATDT*99#^M)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>expect (CONNECT)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>^M</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>^M</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CONNECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> -- got it</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Script /usr/sbin/chat -s -v -f /etc/ppp/evdo-connect-chat finished (pid 13770), status = 0x0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Serial connection established.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>using channel 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Using interface ppp0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Connect: ppp0 &lt;--&gt; /dev/ttyUSB1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sent [LCP ConfReq id=0x1 &lt;asyncmap 0x0&gt; &lt;magic 0x3826beb4&gt; &lt;pcomp&gt; &lt;accomp&gt;]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rcvd [LCP ConfReq id=0xc &lt;asyncmap 0x0&gt; &lt;auth chap MD5&gt; &lt;magic 0xd12ce909&gt; &lt;pcomp&gt; &lt;accomp&gt;]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sent [LCP ConfAck id=0xc &lt;asyncmap 0x0&gt; &lt;auth chap MD5&gt; &lt;magic 0xd12ce909&gt; &lt;pcomp&gt; &lt;accomp&gt;]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rcvd [LCP ConfAck id=0x1 &lt;asyncmap 0x0&gt; &lt;magic 0x3826beb4&gt; &lt;pcomp&gt; &lt;accomp&gt;]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sent [LCP EchoReq id=0x0 magic=0x3826beb4]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rcvd [LCP DiscReq id=0xd magic=0xd12ce909]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rcvd [CHAP Challenge id=0x1 &lt;aac643430991ca22ce62bb979a929b0a&gt;, name = "UMTS_CHAP_SRVR"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sent [CHAP Response id=0x1 &lt;3543ea0903295f4b340209eb3a570480&gt;, name = "card"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rcvd [LCP EchoRep id=0x0 magic=0xd12ce909 38 26 be b4]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rcvd [CHAP Success id=0x1 ""]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CHAP authentication succeeded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CHAP authentication succeeded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sent [CCP ConfReq id=0x1 &lt;deflate 15&gt; &lt;deflate(old#) 15&gt; &lt;bsd v1 15&gt;]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sent [IPCP ConfReq id=0x1 &lt;compress VJ 0f 01&gt; &lt;addr 0.0.0.0&gt; &lt;ms-dns1 0.0.0.0&gt; &lt;ms-dns2 0.0.0.0&gt;]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rcvd [LCP ProtRej id=0xe 80 fd 01 01 00 0f 1a 04 78 00 18 04 78 00 15 03 2f]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Protocol-Reject for 'Compression Control Protocol' (0x80fd) received</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rcvd [IPCP ConfReq id=0x8]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sent [IPCP ConfNak id=0x8 &lt;addr 0.0.0.0&gt;]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rcvd [IPCP ConfRej id=0x1 &lt;compress VJ 0f 01&gt;]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sent [IPCP ConfReq id=0x2 &lt;addr 0.0.0.0&gt; &lt;ms-dns1 0.0.0.0&gt; &lt;ms-dns2 0.0.0.0&gt;]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rcvd [IPCP ConfReq id=0x9]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sent [IPCP ConfAck id=0x9]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rcvd [IPCP ConfNak id=0x2 &lt;addr 10.24.34.56&gt; &lt;ms-dns1 116.116.116.116&gt; &lt;ms-dns2 221.5.88.88&gt;]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sent [IPCP ConfReq id=0x3 &lt;addr 10.24.34.56&gt; &lt;ms-dns1 116.116.116.116&gt; &lt;ms-dns2 221.5.88.88&gt;]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rcvd [IPCP ConfAck id=0x3 &lt;addr 10.24.34.56&gt; &lt;ms-dns1 116.116.116.116&gt; &lt;ms-dns2 221.5.88.88&gt;]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Could not determine remote IP address: defaulting to 10.64.64.64</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>local  IP address 10.24.34.56</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>remote IP address 10.64.64.64</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>primary   DNS address 116.116.116.116</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>secondary DNS address 221.5.88.88</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Script /etc/ppp/ip-up started (pid 13777)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Script /etc/ppp/ip-up finished (pid 13777), status = 0x0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>退出过程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>^C</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Terminating on signal 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Connect time 13.1 minutes.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sent 39652820 bytes, received 95195191 bytes.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Script /etc/ppp/ip-down started (pid 13729)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sent [LCP TermReq id=0x2 "User request"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rcvd [LCP TermAck id=0x2]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Connection terminated.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Script /etc/ppp/ip-down finished (pid 13729), status = 0x0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13068300" cy="4067175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9458325"/>
+          <a:ext cx="12363450" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>452459</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>147752</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>138118</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="106" name="组合 105"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6624659" y="1995493"/>
+          <a:ext cx="9982293" cy="3752850"/>
+          <a:chOff x="6929459" y="2166943"/>
+          <a:chExt cx="9982293" cy="3752850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="16200000">
+            <a:off x="6696097" y="2400305"/>
+            <a:ext cx="3752850" cy="3286125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Picture 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="16200000">
+            <a:off x="11846775" y="583347"/>
+            <a:ext cx="3438527" cy="6691427"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="2571749"/>
+          <a:ext cx="609600" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PCM</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295524" y="2543174"/>
+          <a:ext cx="247652" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="2524124"/>
+          <a:ext cx="533399" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="D60093"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MIC/ER</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="2019299"/>
+          <a:ext cx="628651" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1.MIC+</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304802</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1319214" y="2290762"/>
+          <a:ext cx="381000" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="1714501"/>
+          <a:ext cx="571501" cy="219074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.MIC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95253</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1385887" y="2243139"/>
+          <a:ext cx="695328" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247901" y="1676401"/>
+          <a:ext cx="600074" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7.SPK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38103</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>490539</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接箭头连接符 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1969294" y="2059783"/>
+          <a:ext cx="704853" cy="452436"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="1981200"/>
+          <a:ext cx="600075" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5.SPK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581033</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1816898" y="2383636"/>
+          <a:ext cx="371476" cy="100005"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>61631</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="108" name="组合 107"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="371475" y="3952875"/>
+          <a:ext cx="6229350" cy="2261906"/>
+          <a:chOff x="371475" y="3209925"/>
+          <a:chExt cx="6229350" cy="2261906"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Picture 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="371475" y="3209925"/>
+            <a:ext cx="6229350" cy="2261906"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="矩形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1885950" y="4514849"/>
+            <a:ext cx="676275" cy="409576"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SIM</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="矩形 57"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1609725" y="3609974"/>
+            <a:ext cx="800100" cy="247651"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>6.SIM-DET</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="59" name="直接箭头连接符 58"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="58" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="1600201" y="4200525"/>
+            <a:ext cx="752475" cy="66675"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="矩形 76"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2019300" y="3933824"/>
+            <a:ext cx="666750" cy="247651"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>8.Sim+</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="78" name="直接箭头连接符 77"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="77" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="2005011" y="4224339"/>
+            <a:ext cx="390528" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="矩形 84"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2390776" y="4229099"/>
+            <a:ext cx="942974" cy="247651"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>10.Sim-data</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="86" name="直接箭头连接符 85"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="85" idx="1"/>
+            <a:endCxn id="8" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipV="1">
+            <a:off x="2224088" y="4352925"/>
+            <a:ext cx="166688" cy="161924"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="矩形 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704976" y="3086100"/>
+          <a:ext cx="619124" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11.RXD</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直接箭头连接符 109"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2324100" y="2857500"/>
+          <a:ext cx="38100" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="矩形 115"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495549" y="3114675"/>
+          <a:ext cx="657225" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13.TXD</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直接箭头连接符 116"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="116" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2466975" y="2857501"/>
+          <a:ext cx="28574" cy="366713"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>140493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="矩形 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="5750718"/>
+          <a:ext cx="809623" cy="202407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12.Sim-clk</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60722</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直接箭头连接符 121"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="121" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2209798" y="5610226"/>
+          <a:ext cx="114302" cy="241696"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="矩形 136"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428751" y="6007893"/>
+          <a:ext cx="952498" cy="202407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>14.Sim-reset</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136922</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="直接箭头连接符 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2381249" y="5553075"/>
+          <a:ext cx="114301" cy="556022"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="矩形 194"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3047999" y="1876424"/>
+          <a:ext cx="838201" cy="266701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>19.wakeup</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114304</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="直接箭头连接符 195"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="195" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3181349" y="2362202"/>
+          <a:ext cx="504828" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571502</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>169067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="矩形 208"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314702" y="4693442"/>
+          <a:ext cx="657223" cy="221457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>22.RESET</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>214314</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="210" name="直接箭头连接符 209"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="209" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3407569" y="5150643"/>
+          <a:ext cx="476251" cy="4761"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="矩形 217"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276599" y="3419475"/>
+          <a:ext cx="857251" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>23.uart-cts</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="219" name="直接箭头连接符 218"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="218" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3424238" y="3138487"/>
+          <a:ext cx="533400" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180973</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="247" name="矩形 246"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3609973" y="2552699"/>
+          <a:ext cx="276227" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="矩形 248"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829049" y="3190875"/>
+          <a:ext cx="857251" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>25.uart-rts</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="250" name="直接箭头连接符 249"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="249" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3800475" y="2876550"/>
+          <a:ext cx="28574" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="253" name="矩形 252"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="4352925"/>
+          <a:ext cx="885826" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>28. ON/OFF</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>614362</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="254" name="直接箭头连接符 253"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="253" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3659980" y="4983958"/>
+          <a:ext cx="781052" cy="14287"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="257" name="矩形 256"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162174" y="2571749"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="258" name="矩形 257"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581274" y="2562224"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="264" name="矩形 263"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514724" y="2562224"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="265" name="矩形 264"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581149" y="5257799"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="266" name="矩形 265"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733549" y="5257799"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="267" name="矩形 266"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305174" y="5257799"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="268" name="矩形 267"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876674" y="5257799"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="269" name="矩形 268"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733799" y="5257799"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="272" name="矩形 271"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3914774" y="2562224"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="273" name="矩形 272"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048124" y="2562224"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="矩形 280"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162424" y="5257799"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="282" name="矩形 281"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448049" y="5257799"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="283" name="矩形 282"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590799" y="5267324"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="284" name="矩形 283"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171949" y="2562224"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="285" name="矩形 284"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171824" y="5886449"/>
+          <a:ext cx="1123951" cy="266701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>32.wakeup-out</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="286" name="直接箭头连接符 285"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="285" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4295775" y="5610225"/>
+          <a:ext cx="57150" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="291" name="矩形 290"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305299" y="2571749"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="292" name="矩形 291"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448174" y="5257799"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="293" name="矩形 292"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448174" y="2562224"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28577</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>16668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="296" name="矩形 295"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143377" y="4722018"/>
+          <a:ext cx="504823" cy="230982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>36.D-</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>132159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="297" name="直接箭头连接符 296"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="296" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4638675" y="4837509"/>
+          <a:ext cx="9525" cy="458391"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="302" name="矩形 301"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4571999" y="2552699"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="307" name="矩形 306"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800602" y="4750593"/>
+          <a:ext cx="552448" cy="211932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>38.D+</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>151209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="310" name="直接箭头连接符 309"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="307" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4781550" y="4856559"/>
+          <a:ext cx="19052" cy="467916"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="322" name="矩形 321"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714874" y="2552699"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="323" name="矩形 322"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876799" y="5257799"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="324" name="矩形 323"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848224" y="2571749"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="325" name="矩形 324"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="5981699"/>
+          <a:ext cx="847725" cy="266701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>42.wan-led</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="326" name="直接箭头连接符 325"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="325" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4812507" y="5736431"/>
+          <a:ext cx="352424" cy="138112"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="334" name="矩形 333"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972049" y="2562224"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314323</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="335" name="矩形 334"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114923" y="6267450"/>
+          <a:ext cx="895351" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>44.SIM-DET</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="336" name="直接箭头连接符 335"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="335" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5057775" y="5762625"/>
+          <a:ext cx="647700" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619127</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>64292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="341" name="矩形 340"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419727" y="4769642"/>
+          <a:ext cx="628648" cy="221457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>46.LED</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619127</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="342" name="直接箭头连接符 341"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="341" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5362575" y="4880370"/>
+          <a:ext cx="57152" cy="453629"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="345" name="矩形 344"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448299" y="5267324"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="346" name="矩形 345"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591174" y="5267324"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="347" name="矩形 346"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724524" y="5257799"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>462123</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="358" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6181726" y="7381875"/>
+          <a:ext cx="2509997" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="371" name="组合 370"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2562225" y="7620000"/>
+          <a:ext cx="1619249" cy="1104900"/>
+          <a:chOff x="3343275" y="7905750"/>
+          <a:chExt cx="1619249" cy="1104900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="369" name="组合 368"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3343275" y="7905750"/>
+            <a:ext cx="1619249" cy="1104900"/>
+            <a:chOff x="3505200" y="8010525"/>
+            <a:chExt cx="1619249" cy="1104900"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="353" name="任意多边形 352"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3505200" y="8010525"/>
+              <a:ext cx="1619249" cy="1104900"/>
+            </a:xfrm>
+            <a:custGeom>
+              <a:avLst/>
+              <a:gdLst>
+                <a:gd name="connsiteX0" fmla="*/ 66675 w 2762250"/>
+                <a:gd name="connsiteY0" fmla="*/ 19050 h 1419225"/>
+                <a:gd name="connsiteX1" fmla="*/ 1447800 w 2762250"/>
+                <a:gd name="connsiteY1" fmla="*/ 9525 h 1419225"/>
+                <a:gd name="connsiteX2" fmla="*/ 2505075 w 2762250"/>
+                <a:gd name="connsiteY2" fmla="*/ 0 h 1419225"/>
+                <a:gd name="connsiteX3" fmla="*/ 2762250 w 2762250"/>
+                <a:gd name="connsiteY3" fmla="*/ 323850 h 1419225"/>
+                <a:gd name="connsiteX4" fmla="*/ 2762250 w 2762250"/>
+                <a:gd name="connsiteY4" fmla="*/ 1085850 h 1419225"/>
+                <a:gd name="connsiteX5" fmla="*/ 2762250 w 2762250"/>
+                <a:gd name="connsiteY5" fmla="*/ 1419225 h 1419225"/>
+                <a:gd name="connsiteX6" fmla="*/ 19050 w 2762250"/>
+                <a:gd name="connsiteY6" fmla="*/ 1419225 h 1419225"/>
+                <a:gd name="connsiteX7" fmla="*/ 0 w 2762250"/>
+                <a:gd name="connsiteY7" fmla="*/ 9525 h 1419225"/>
+                <a:gd name="connsiteX8" fmla="*/ 247650 w 2762250"/>
+                <a:gd name="connsiteY8" fmla="*/ 19050 h 1419225"/>
+              </a:gdLst>
+              <a:ahLst/>
+              <a:cxnLst>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX0" y="connsiteY0"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX1" y="connsiteY1"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX2" y="connsiteY2"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX3" y="connsiteY3"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX4" y="connsiteY4"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX5" y="connsiteY5"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX6" y="connsiteY6"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX7" y="connsiteY7"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX8" y="connsiteY8"/>
+                </a:cxn>
+              </a:cxnLst>
+              <a:rect l="l" t="t" r="r" b="b"/>
+              <a:pathLst>
+                <a:path w="2762250" h="1419225">
+                  <a:moveTo>
+                    <a:pt x="66675" y="19050"/>
+                  </a:moveTo>
+                  <a:lnTo>
+                    <a:pt x="1447800" y="9525"/>
+                  </a:lnTo>
+                  <a:lnTo>
+                    <a:pt x="2505075" y="0"/>
+                  </a:lnTo>
+                  <a:lnTo>
+                    <a:pt x="2762250" y="323850"/>
+                  </a:lnTo>
+                  <a:lnTo>
+                    <a:pt x="2762250" y="1085850"/>
+                  </a:lnTo>
+                  <a:lnTo>
+                    <a:pt x="2762250" y="1419225"/>
+                  </a:lnTo>
+                  <a:lnTo>
+                    <a:pt x="19050" y="1419225"/>
+                  </a:lnTo>
+                  <a:lnTo>
+                    <a:pt x="0" y="9525"/>
+                  </a:lnTo>
+                  <a:lnTo>
+                    <a:pt x="247650" y="19050"/>
+                  </a:lnTo>
+                </a:path>
+              </a:pathLst>
+            </a:custGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="38100"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="359" name="矩形 358"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3619499" y="8429626"/>
+              <a:ext cx="523876" cy="200024"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>CLK</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="364" name="矩形 363"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3619499" y="8648701"/>
+              <a:ext cx="523876" cy="200024"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>RESET</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="365" name="矩形 364"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3619499" y="8858251"/>
+              <a:ext cx="523876" cy="200024"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>VCC</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="366" name="矩形 365"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4238625" y="8420100"/>
+              <a:ext cx="523876" cy="200024"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>IO</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="367" name="矩形 366"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4238625" y="8639175"/>
+              <a:ext cx="523876" cy="200024"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>VPP</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="368" name="矩形 367"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4238625" y="8848725"/>
+              <a:ext cx="523876" cy="200024"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>GND</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="370" name="矩形 369"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3381375" y="8039100"/>
+            <a:ext cx="1428750" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SIM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>卡槽</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>由上往下看</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="矩形 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238499" y="2571749"/>
+          <a:ext cx="95251" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF33CC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="266700"/>
+          <a:ext cx="6362700" cy="4076700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="1285876"/>
+          <a:ext cx="504826" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10k</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="3343276"/>
+          <a:ext cx="504826" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10k</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="2047876"/>
+          <a:ext cx="504826" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>30k</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4419600"/>
+          <a:ext cx="4933950" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2210,35 +10483,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A9:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="P108" sqref="P108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="9" spans="1:9" ht="20.25">
-      <c r="I9" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="9" spans="1:9" ht="19.5">
+      <c r="I9" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="23.25">
       <c r="A14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18">
       <c r="A15" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18">
       <c r="A17" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2251,18 +10522,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A37:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="37" spans="1:11">
+      <c r="K37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/4G模块配置.xlsx
+++ b/4G模块配置.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>sudo apt-get install -y ppp</t>
   </si>
@@ -26,32 +26,6 @@
   </si>
   <si>
     <t>sudo apt-get install -y pptpd</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）安装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pppd (point-to-point protocol dial)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -260,12 +234,346 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编辑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>drivers/usb/serial/option.c</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在文件中添加：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在文件中找到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>option_ids[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数组，如下增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PID,VID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编译内核，即可识别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ttyUSB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串口设备：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pppd (point-to-point protocol dial)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make menuconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device drivers -&gt; usb support -&gt; usb serial converter support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB driver for GSM and CDMA modems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中后保存配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在内核文件中添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>USB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转串口驱动组件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果要屏蔽某个端口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不加载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，在文件中增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> blacklist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +622,33 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -335,11 +670,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -414,8 +752,9 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF006600"/>
+      <color rgb="FFFF3399"/>
       <color rgb="FFFF33CC"/>
-      <color rgb="FF006600"/>
       <color rgb="FF33CC33"/>
     </mruColors>
   </colors>
@@ -428,13 +767,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>348234</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -475,13 +814,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -535,13 +874,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -587,13 +926,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -660,13 +999,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -712,13 +1051,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -785,13 +1124,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -894,13 +1233,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -910,7 +1249,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="4867274"/>
+          <a:off x="0" y="14754224"/>
           <a:ext cx="8048624" cy="3762375"/>
           <a:chOff x="0" y="4981574"/>
           <a:chExt cx="8048624" cy="3762375"/>
@@ -1700,13 +2039,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2212,13 +2551,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2535,13 +2874,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4224,6 +4563,686 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2924175"/>
+          <a:ext cx="7410451" cy="933449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF3399"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>#define QUALCOMM_VENDOR_ID   0X05C6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF3399"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#define YUGA_PRODUCT_CLM920   0X9025</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF3399"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF3399"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//#define YUGA_PRODUCT_CLM920   0X905A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF3399"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF3399"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>切换为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF3399"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ECM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF3399"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方式</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF3399"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5505448"/>
+          <a:ext cx="10429875" cy="1352551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0">
+              <a:solidFill>
+                <a:srgbClr val="006600"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>static</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="006600"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> const </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>struct </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>usb_device_id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>option_ids[]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如下增加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>VID,PID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{ USB_DEVICE ( QUALCOMM_VENDOR_ID, YUGA_PRODUCT_CLM920) },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>该为屏蔽端口时增加的部分</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1600" b="0" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//{ USB_DEVICE ( QUALCOMM_VENDOR_ID, YUGA_PRODUCT_CLM920) ,  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.driver_info = ( kernel_ulong_t ) &amp;YUGA_blacklist </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>},</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1600" b="0" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4076701"/>
+          <a:ext cx="6934199" cy="1028699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0">
+              <a:solidFill>
+                <a:srgbClr val="006600"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>static</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="006600"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> const </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>struct </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>option_blacklist_info YUGA_blacklist = {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>                      // .reserved = BIT( 4 ),  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>屏蔽</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>号端口</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                      // .reserved = BIT( 3 ) | BIT( 4 ),  //ECM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方式屏蔽</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>号和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>号端口</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>};</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1647825" y="3781425"/>
+          <a:ext cx="2857500" cy="2714625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10481,34 +11500,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A9:I17"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="P108" sqref="P108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="9" spans="1:9" ht="19.5">
-      <c r="I9" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="23.25">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
+    <row r="1" spans="1:17" ht="23.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18">
-      <c r="A15" s="2" t="s">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="19.5">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="19.5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="20.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" ht="14.25" customHeight="1">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="14.25" customHeight="1">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" ht="21.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" ht="18.75">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" ht="18">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" ht="18">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" ht="18">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" ht="18">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" ht="18">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" ht="18">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" ht="18">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" ht="18">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" ht="18">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" ht="18">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" ht="18">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" ht="18.75">
+      <c r="A30" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" ht="18">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" ht="18">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" ht="18">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" ht="17.25" customHeight="1"/>
+    <row r="42" spans="1:1" ht="18.75">
+      <c r="A42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="19.5">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="23.25">
+      <c r="A58" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18">
+      <c r="A59" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18">
-      <c r="A16" s="2" t="s">
+    <row r="60" spans="1:9" ht="18">
+      <c r="A60" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18">
-      <c r="A17" s="2" t="s">
+    <row r="61" spans="1:9" ht="18">
+      <c r="A61" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10532,20 +11709,20 @@
   <sheetData>
     <row r="37" spans="1:11">
       <c r="K37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="H38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -10568,7 +11745,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/4G模块配置.xlsx
+++ b/4G模块配置.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -572,8 +572,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,72 +685,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF006600"/>
       <color rgb="FFFF3399"/>
@@ -758,6 +692,11 @@
       <color rgb="FF33CC33"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5200,16 +5139,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5227,7 +5166,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1647825" y="3781425"/>
+          <a:off x="7019925" y="3771900"/>
           <a:ext cx="2857500" cy="2714625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11216,14 +11155,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="A0A0A0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -11290,6 +11229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -11324,6 +11264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11499,44 +11440,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25">
+    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="19.5">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="19.5">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="19.5">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="19.5">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="20.25">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -11547,7 +11488,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" ht="14.25" customHeight="1">
+    <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -11555,7 +11496,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" ht="14.25" customHeight="1">
+    <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -11563,7 +11504,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" ht="21.75" customHeight="1">
+    <row r="10" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -11574,7 +11515,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -11585,106 +11526,106 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" ht="18.75">
+    <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18">
+    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:17" ht="18">
+    <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:17" ht="18">
+    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:17" ht="18">
+    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" ht="18.75" customHeight="1">
+    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" ht="18.75" customHeight="1">
+    <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18.75" customHeight="1">
+    <row r="19" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" ht="18.75" customHeight="1">
+    <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1" ht="18.75" customHeight="1">
+    <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" ht="18">
+    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1" ht="18">
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:1" ht="18">
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:1" ht="18">
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:1" ht="18">
+    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:1" ht="18">
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:1" ht="18">
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:1" ht="18">
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:1" ht="18.75">
+    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18">
+    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:1" ht="18">
+    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1" ht="18">
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" spans="1:1" ht="18">
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1" ht="17.25" customHeight="1"/>
-    <row r="42" spans="1:1" ht="18.75">
+    <row r="35" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="19.5">
+    <row r="51" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
       <c r="I51" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="23.25">
+    <row r="58" spans="1:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18">
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18">
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18">
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>2</v>
       </c>
@@ -11698,26 +11639,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A37:K39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -11734,16 +11675,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11757,12 +11698,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
